--- a/leanCrm/data/physicalAreas/PhysicalAreas/data/PhysicalAreas.xlsx
+++ b/leanCrm/data/physicalAreas/PhysicalAreas/data/PhysicalAreas.xlsx
@@ -12,14 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
-    <sheet name="PhysicalAreas" sheetId="1" r:id="rId1"/>
+    <sheet name="LOCAL01" sheetId="2" r:id="rId1"/>
+    <sheet name="LOCAL02" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -100,6 +101,117 @@
   </si>
   <si>
     <t>Marco Interior Porton L2</t>
+  </si>
+  <si>
+    <t>Porton L1</t>
+  </si>
+  <si>
+    <t>Pared Frontal L1</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho L1</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo L1</t>
+  </si>
+  <si>
+    <t>Filos Columna PLD L1</t>
+  </si>
+  <si>
+    <t>Marco Porton L1</t>
+  </si>
+  <si>
+    <t>Filos Columnas PFI L1</t>
+  </si>
+  <si>
+    <t>Filos Columnas PFR L1</t>
+  </si>
+  <si>
+    <t>Filos Columnas PLI L1</t>
+  </si>
+  <si>
+    <t>Piso L1</t>
+  </si>
+  <si>
+    <t>Techo L1</t>
+  </si>
+  <si>
+    <t>Pared Frontal Baño L1</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Baño L1</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Baño L1</t>
+  </si>
+  <si>
+    <t>Marco Puerta Baño L1</t>
+  </si>
+  <si>
+    <t>Filo Columna PFI Baño L1</t>
+  </si>
+  <si>
+    <t>Filos Columna PLD Baño L1</t>
+  </si>
+  <si>
+    <t>Pared Frontal Cocina L1</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Cocina L1</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Cocina L1</t>
+  </si>
+  <si>
+    <t>Vacio Pared Frontal Cocina L1</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Cocina L1</t>
+  </si>
+  <si>
+    <t>Filos Columna PFR Cocina L1</t>
+  </si>
+  <si>
+    <t>Filo PFR Cocina L1</t>
+  </si>
+  <si>
+    <t>Filos Columna PFI Cocina L1?</t>
+  </si>
+  <si>
+    <t>Filos PLI Cocina L1</t>
+  </si>
+  <si>
+    <t>Base Derecha Cocina L1</t>
+  </si>
+  <si>
+    <t>Base Izquierda Cocina L1</t>
+  </si>
+  <si>
+    <t>Filo Base Derecha Cocina L1</t>
+  </si>
+  <si>
+    <t>Filo Base Izquierda Cocina L1</t>
+  </si>
+  <si>
+    <t>Piso Baño L1</t>
+  </si>
+  <si>
+    <t>Techo Baño L1</t>
+  </si>
+  <si>
+    <t>Piso Cocina L1</t>
+  </si>
+  <si>
+    <t>Techo Cocina L1</t>
+  </si>
+  <si>
+    <t>Marco ventana PLD Cocina L1</t>
+  </si>
+  <si>
+    <t>Guardaescoba Baño L2</t>
+  </si>
+  <si>
+    <t>Guardascoba L1</t>
   </si>
 </sst>
 </file>
@@ -906,10 +1018,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,16 +1354,21 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>

--- a/leanCrm/data/physicalAreas/PhysicalAreas/data/PhysicalAreas.xlsx
+++ b/leanCrm/data/physicalAreas/PhysicalAreas/data/PhysicalAreas.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\njava\simasoft\leanCrm\data\physicalAreas\PhysicalAreas\data\"/>
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
-    <sheet name="LOCAL01" sheetId="2" r:id="rId1"/>
+    <sheet name="PhysicalAreas" sheetId="2" r:id="rId1"/>
     <sheet name="LOCAL02" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -20,32 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>Porton L2</t>
-  </si>
-  <si>
-    <t>Pared Fachada Interior L2</t>
-  </si>
-  <si>
-    <t>Pared Frontal L2</t>
-  </si>
-  <si>
-    <t>Pared Lado Derecho L2</t>
-  </si>
-  <si>
-    <t>Pared Lado Izquierdo L2</t>
-  </si>
-  <si>
-    <t>Ventana L2</t>
-  </si>
-  <si>
-    <t>Marco Ventana Baño L2</t>
-  </si>
-  <si>
     <t>Pared Fachada Interior Rincon L2</t>
   </si>
   <si>
@@ -100,42 +79,6 @@
     <t>Techo Baño L2</t>
   </si>
   <si>
-    <t>Marco Interior Porton L2</t>
-  </si>
-  <si>
-    <t>Porton L1</t>
-  </si>
-  <si>
-    <t>Pared Frontal L1</t>
-  </si>
-  <si>
-    <t>Pared Lado Derecho L1</t>
-  </si>
-  <si>
-    <t>Pared Lado Izquierdo L1</t>
-  </si>
-  <si>
-    <t>Filos Columna PLD L1</t>
-  </si>
-  <si>
-    <t>Marco Porton L1</t>
-  </si>
-  <si>
-    <t>Filos Columnas PFI L1</t>
-  </si>
-  <si>
-    <t>Filos Columnas PFR L1</t>
-  </si>
-  <si>
-    <t>Filos Columnas PLI L1</t>
-  </si>
-  <si>
-    <t>Piso L1</t>
-  </si>
-  <si>
-    <t>Techo L1</t>
-  </si>
-  <si>
     <t>Pared Frontal Baño L1</t>
   </si>
   <si>
@@ -211,13 +154,100 @@
     <t>Guardaescoba Baño L2</t>
   </si>
   <si>
-    <t>Guardascoba L1</t>
+    <t>Porton Local L1</t>
+  </si>
+  <si>
+    <t>Marco  Porton Local  L1</t>
+  </si>
+  <si>
+    <t>Pared Frontal Local L1</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Local  L1</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Local  L1</t>
+  </si>
+  <si>
+    <t>Filos Columnas PFI Local  L1</t>
+  </si>
+  <si>
+    <t>Filos Columnas PFR Local  L1</t>
+  </si>
+  <si>
+    <t>Filos Columna PLD Local  L1</t>
+  </si>
+  <si>
+    <t>Filos Columnas PLI Local  L1</t>
+  </si>
+  <si>
+    <t>Piso Local  L1</t>
+  </si>
+  <si>
+    <t>Guardascoba Local  L1</t>
+  </si>
+  <si>
+    <t>Techo Local  L1</t>
+  </si>
+  <si>
+    <t>Porton Local L2</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Local L2</t>
+  </si>
+  <si>
+    <t>Pared Frontal Local L2</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Local L2</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Local L2</t>
+  </si>
+  <si>
+    <t>Ventana PLD Local L2</t>
+  </si>
+  <si>
+    <t>Marco Ventana PLI Baño L2</t>
+  </si>
+  <si>
+    <t>Marco Porton Local L2</t>
+  </si>
+  <si>
+    <t>Marco Puerta Rincon L2</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>PhysicalAreas</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>prof</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -717,7 +747,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -1018,200 +1048,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>60</v>
+      <c r="B38" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1221,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,137 +1420,142 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/leanCrm/data/physicalAreas/PhysicalAreas/data/PhysicalAreas.xlsx
+++ b/leanCrm/data/physicalAreas/PhysicalAreas/data/PhysicalAreas.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\njava\simasoft\leanCrm\data\physicalAreas\PhysicalAreas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalAreas" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -747,7 +747,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -1050,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1402,159 +1402,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>18</v>
       </c>
     </row>

--- a/leanCrm/data/physicalAreas/PhysicalAreas/data/PhysicalAreas.xlsx
+++ b/leanCrm/data/physicalAreas/PhysicalAreas/data/PhysicalAreas.xlsx
@@ -2,25 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\njava\simasoft\leanCrm\data\physicalAreas\PhysicalAreas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalAreas" sheetId="2" r:id="rId1"/>
-    <sheet name="LOCAL02" sheetId="1" r:id="rId2"/>
+    <sheet name="L1" sheetId="3" r:id="rId2"/>
+    <sheet name="L2" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -242,12 +243,42 @@
   </si>
   <si>
     <t>volume</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -747,7 +778,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -1048,9 +1079,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1114,6 +1147,21 @@
       <c r="B3" t="s">
         <v>44</v>
       </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1122,6 +1170,21 @@
       <c r="B4" t="s">
         <v>45</v>
       </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1130,6 +1193,21 @@
       <c r="B5" t="s">
         <v>46</v>
       </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1138,6 +1216,21 @@
       <c r="B6" t="s">
         <v>47</v>
       </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1146,6 +1239,21 @@
       <c r="B7" t="s">
         <v>48</v>
       </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1154,6 +1262,21 @@
       <c r="B8" t="s">
         <v>49</v>
       </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1162,6 +1285,21 @@
       <c r="B9" t="s">
         <v>50</v>
       </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1170,6 +1308,21 @@
       <c r="B10" t="s">
         <v>51</v>
       </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1178,6 +1331,21 @@
       <c r="B11" t="s">
         <v>52</v>
       </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1186,6 +1354,21 @@
       <c r="B12" t="s">
         <v>53</v>
       </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1194,6 +1377,21 @@
       <c r="B13" t="s">
         <v>54</v>
       </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1202,6 +1400,21 @@
       <c r="B14" t="s">
         <v>55</v>
       </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1210,6 +1423,21 @@
       <c r="B15" t="s">
         <v>22</v>
       </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1218,181 +1446,1170 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" t="s">
+        <v>82</v>
+      </c>
+      <c r="G57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" t="s">
+        <v>82</v>
+      </c>
+      <c r="G60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" t="s">
+        <v>82</v>
+      </c>
+      <c r="G61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" t="s">
+        <v>82</v>
+      </c>
+      <c r="G62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" t="s">
+        <v>82</v>
+      </c>
+      <c r="G64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1402,166 +2619,1605 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
